--- a/MonitoringTemograficApplication/MonitoringTemograficApplication/bin/Debug/netcoreapp3.1/Template/MonitoramentoTermografico-Template.xlsx
+++ b/MonitoringTemograficApplication/MonitoringTemograficApplication/bin/Debug/netcoreapp3.1/Template/MonitoramentoTermografico-Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augusto.morais\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo.junior\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABB42DD4-F99D-47C5-80D3-3A310ECB4C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6462CE8-7E7E-4738-83B3-D2186A6417E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F24CF759-7618-443C-8B8C-7F59D89E9A28}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +130,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -244,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -270,27 +278,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,13 +288,28 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,14 +685,14 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="19" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="12" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
@@ -703,30 +705,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -740,7 +742,7 @@
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="14"/>
@@ -749,10 +751,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="12"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -766,7 +768,7 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -788,13 +790,13 @@
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -810,19 +812,22 @@
         <v>10</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="21"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="20"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
@@ -840,7 +845,7 @@
     <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>